--- a/target/test-classes/testdata/Book1.xlsx
+++ b/target/test-classes/testdata/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tester\Learn testing\Selenium java\CreateProjectWithMaven1\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tester\Learn testing\Selenium java\JavaSeleniumMavenParallel23\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F5B740-56C1-4FD8-AFA8-897DF39A4401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4191EC86-8471-4276-8197-B5A0C48DF790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FABECB2-CD6D-4D2C-96D5-0E7B73CD295A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>password</t>
   </si>
@@ -44,14 +44,17 @@
     <t>username</t>
   </si>
   <si>
-    <t>frances.burns</t>
+    <t>riseDemo</t>
+  </si>
+  <si>
+    <t>admin1@demo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +67,14 @@
       <color rgb="FF6F9037"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,16 +94,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,7 +422,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,15 +439,18 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A69C290A-1DC0-4F89-8326-A71D1E0575C5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>